--- a/data/pca/factorExposure/factorExposure_2014-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008536444154532365</v>
+        <v>0.0190081449489658</v>
       </c>
       <c r="C2">
-        <v>0.1211107729087638</v>
+        <v>0.06857117146875941</v>
       </c>
       <c r="D2">
-        <v>0.0216395502337257</v>
+        <v>0.03124665407325431</v>
       </c>
       <c r="E2">
-        <v>0.2199187359622646</v>
+        <v>0.01089357772416859</v>
       </c>
       <c r="F2">
-        <v>0.03846961628508764</v>
+        <v>-0.0520672493979325</v>
       </c>
       <c r="G2">
-        <v>-0.07906590058834188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1615766042186333</v>
+      </c>
+      <c r="H2">
+        <v>-0.01604907606844493</v>
+      </c>
+      <c r="I2">
+        <v>0.02656971623963107</v>
+      </c>
+      <c r="J2">
+        <v>-0.1194283635546705</v>
+      </c>
+      <c r="K2">
+        <v>0.0384021313699757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.02151838960987647</v>
+        <v>0.0189320742459589</v>
       </c>
       <c r="C4">
-        <v>0.1701544774948056</v>
+        <v>0.1428173327656201</v>
       </c>
       <c r="D4">
-        <v>0.03922003123709659</v>
+        <v>0.06545971323950063</v>
       </c>
       <c r="E4">
-        <v>0.04598067946133777</v>
+        <v>0.01033024423118128</v>
       </c>
       <c r="F4">
-        <v>-0.06938621652220274</v>
+        <v>0.03665357104776296</v>
       </c>
       <c r="G4">
-        <v>0.02428723131308176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06777549632550017</v>
+      </c>
+      <c r="H4">
+        <v>0.0406729271990475</v>
+      </c>
+      <c r="I4">
+        <v>0.08065239447174058</v>
+      </c>
+      <c r="J4">
+        <v>-0.057183139688213</v>
+      </c>
+      <c r="K4">
+        <v>-0.008765423374038923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02583809488239006</v>
+        <v>0.03952409473101653</v>
       </c>
       <c r="C6">
-        <v>0.07748910326540569</v>
+        <v>0.08599809462369828</v>
       </c>
       <c r="D6">
-        <v>0.05826768083017509</v>
+        <v>0.02836138280626258</v>
       </c>
       <c r="E6">
-        <v>0.05266946167097791</v>
+        <v>0.01426787437750056</v>
       </c>
       <c r="F6">
-        <v>-0.001763818082395673</v>
+        <v>-0.0448165850236921</v>
       </c>
       <c r="G6">
-        <v>0.05251844975874426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02585566816724888</v>
+      </c>
+      <c r="H6">
+        <v>0.06258139734537649</v>
+      </c>
+      <c r="I6">
+        <v>0.03589935337611652</v>
+      </c>
+      <c r="J6">
+        <v>0.04756371271792097</v>
+      </c>
+      <c r="K6">
+        <v>0.03559614327959373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.007123412878084408</v>
+        <v>0.01902369611257583</v>
       </c>
       <c r="C7">
-        <v>0.06980542015217245</v>
+        <v>0.06980421433369251</v>
       </c>
       <c r="D7">
-        <v>0.03717718475880365</v>
+        <v>0.03199783519249931</v>
       </c>
       <c r="E7">
-        <v>0.01238998006608592</v>
+        <v>0.006046687819719451</v>
       </c>
       <c r="F7">
-        <v>-0.02512130001308117</v>
+        <v>0.01641417903602025</v>
       </c>
       <c r="G7">
-        <v>0.0401656956738054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00121442223554711</v>
+      </c>
+      <c r="H7">
+        <v>0.04555951672380495</v>
+      </c>
+      <c r="I7">
+        <v>0.07543378147347186</v>
+      </c>
+      <c r="J7">
+        <v>-0.06757703831815964</v>
+      </c>
+      <c r="K7">
+        <v>0.02226620604175597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01097999338219541</v>
+        <v>0.00145187530538332</v>
       </c>
       <c r="C8">
-        <v>0.07204015672186992</v>
+        <v>0.06047590152403164</v>
       </c>
       <c r="D8">
-        <v>0.04085875023527089</v>
+        <v>0.04848922117676647</v>
       </c>
       <c r="E8">
-        <v>0.0603966005890564</v>
+        <v>0.05207769012611087</v>
       </c>
       <c r="F8">
-        <v>-0.01180899474804857</v>
+        <v>-0.01855819239284684</v>
       </c>
       <c r="G8">
-        <v>-0.01570326689653368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0499452935335589</v>
+      </c>
+      <c r="H8">
+        <v>-0.003456408601511548</v>
+      </c>
+      <c r="I8">
+        <v>0.05706211700487732</v>
+      </c>
+      <c r="J8">
+        <v>0.00428498276494639</v>
+      </c>
+      <c r="K8">
+        <v>-0.008689077155932977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01295220124475178</v>
+        <v>0.01351693681489525</v>
       </c>
       <c r="C9">
-        <v>0.1203631437342521</v>
+        <v>0.1002172142575388</v>
       </c>
       <c r="D9">
-        <v>0.05041142907156717</v>
+        <v>0.04056802434630793</v>
       </c>
       <c r="E9">
-        <v>0.0151019286139878</v>
+        <v>-0.01272780606447796</v>
       </c>
       <c r="F9">
-        <v>-0.008060216600371123</v>
+        <v>0.01693733758236577</v>
       </c>
       <c r="G9">
-        <v>0.03226187085395942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04515724204205139</v>
+      </c>
+      <c r="H9">
+        <v>0.02590438619251286</v>
+      </c>
+      <c r="I9">
+        <v>0.08633883840571227</v>
+      </c>
+      <c r="J9">
+        <v>-0.06763009045532097</v>
+      </c>
+      <c r="K9">
+        <v>0.01567556268446467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2622737829980368</v>
+        <v>0.2473250332882872</v>
       </c>
       <c r="C10">
-        <v>-0.08539304890442728</v>
+        <v>-0.09789012132639684</v>
       </c>
       <c r="D10">
-        <v>-0.0278554116196693</v>
+        <v>-0.002681778349103832</v>
       </c>
       <c r="E10">
-        <v>-0.0394349210467326</v>
+        <v>0.05378338975813322</v>
       </c>
       <c r="F10">
-        <v>-0.01138931136550169</v>
+        <v>-0.02912134743618244</v>
       </c>
       <c r="G10">
-        <v>-0.01595056981712408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02119569000893509</v>
+      </c>
+      <c r="H10">
+        <v>0.02842005267078609</v>
+      </c>
+      <c r="I10">
+        <v>0.03089710483015467</v>
+      </c>
+      <c r="J10">
+        <v>-0.001171809426427949</v>
+      </c>
+      <c r="K10">
+        <v>-0.155960670253504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.0063015789580822</v>
+        <v>0.01726705805359463</v>
       </c>
       <c r="C11">
-        <v>0.06705201558788576</v>
+        <v>0.07804171115850027</v>
       </c>
       <c r="D11">
-        <v>0.02991733888647466</v>
+        <v>0.03783092657369391</v>
       </c>
       <c r="E11">
-        <v>-0.02106500060390491</v>
+        <v>-0.009177581291413651</v>
       </c>
       <c r="F11">
-        <v>-0.00801220429230835</v>
+        <v>0.01022004151986606</v>
       </c>
       <c r="G11">
-        <v>0.04126515962855005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.005804538055677709</v>
+      </c>
+      <c r="H11">
+        <v>0.01645510217088031</v>
+      </c>
+      <c r="I11">
+        <v>0.02922944945341561</v>
+      </c>
+      <c r="J11">
+        <v>-0.01954782531559271</v>
+      </c>
+      <c r="K11">
+        <v>0.02799176993859568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.005106135807991817</v>
+        <v>0.01701966245626466</v>
       </c>
       <c r="C12">
-        <v>0.04409806952958883</v>
+        <v>0.05220302839920414</v>
       </c>
       <c r="D12">
-        <v>0.03695993105998308</v>
+        <v>0.02611268133761016</v>
       </c>
       <c r="E12">
-        <v>-0.007813511559869054</v>
+        <v>-0.01262085559375196</v>
       </c>
       <c r="F12">
-        <v>0.01901264277467447</v>
+        <v>-0.01365027691053084</v>
       </c>
       <c r="G12">
-        <v>0.04997697466073643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002664603409946443</v>
+      </c>
+      <c r="H12">
+        <v>0.0308820360055524</v>
+      </c>
+      <c r="I12">
+        <v>0.02807981615888474</v>
+      </c>
+      <c r="J12">
+        <v>-0.008946885670219567</v>
+      </c>
+      <c r="K12">
+        <v>0.0123161547519858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01220777647505429</v>
+        <v>0.004405075154438397</v>
       </c>
       <c r="C13">
-        <v>0.1230349294725139</v>
+        <v>0.1104587080764091</v>
       </c>
       <c r="D13">
-        <v>0.08310474920891572</v>
+        <v>0.04196629103150577</v>
       </c>
       <c r="E13">
-        <v>0.0678148437963737</v>
+        <v>0.01181856856017162</v>
       </c>
       <c r="F13">
-        <v>0.06578994762211408</v>
+        <v>-0.1163758960921315</v>
       </c>
       <c r="G13">
-        <v>0.1249088494114297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1175050402171184</v>
+      </c>
+      <c r="H13">
+        <v>0.1288119764350094</v>
+      </c>
+      <c r="I13">
+        <v>0.02668418751584627</v>
+      </c>
+      <c r="J13">
+        <v>-0.2085573480196332</v>
+      </c>
+      <c r="K13">
+        <v>-0.1379327450417709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0116197432354838</v>
+        <v>0.02084872894209297</v>
       </c>
       <c r="C14">
-        <v>0.07591034220065045</v>
+        <v>0.0731649551023873</v>
       </c>
       <c r="D14">
-        <v>0.04293803160848288</v>
+        <v>0.04803260633859714</v>
       </c>
       <c r="E14">
-        <v>0.03582755932781344</v>
+        <v>0.0003116747209569838</v>
       </c>
       <c r="F14">
-        <v>0.03304404558984439</v>
+        <v>-0.04492327748044798</v>
       </c>
       <c r="G14">
-        <v>0.07730583139394585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.004298550573802593</v>
+      </c>
+      <c r="H14">
+        <v>0.1278039856869777</v>
+      </c>
+      <c r="I14">
+        <v>0.1487232915245537</v>
+      </c>
+      <c r="J14">
+        <v>-0.08574838633058687</v>
+      </c>
+      <c r="K14">
+        <v>0.01427010460559311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.009832605282208072</v>
+        <v>0.004363279362391683</v>
       </c>
       <c r="C15">
-        <v>0.07096643774344449</v>
+        <v>0.06997072778763685</v>
       </c>
       <c r="D15">
-        <v>0.030019501381967</v>
+        <v>0.0302618521157605</v>
       </c>
       <c r="E15">
-        <v>0.04425291767924772</v>
+        <v>0.01840698653187895</v>
       </c>
       <c r="F15">
-        <v>-0.02196863079312535</v>
+        <v>0.008928948852964897</v>
       </c>
       <c r="G15">
-        <v>0.01931667789395854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02935016001014566</v>
+      </c>
+      <c r="H15">
+        <v>0.03506880525358147</v>
+      </c>
+      <c r="I15">
+        <v>0.06663296093727429</v>
+      </c>
+      <c r="J15">
+        <v>-0.02522321291627956</v>
+      </c>
+      <c r="K15">
+        <v>0.02596363758029755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.009084922840624265</v>
+        <v>0.01651614211121675</v>
       </c>
       <c r="C16">
-        <v>0.05508277322891834</v>
+        <v>0.06029585226949342</v>
       </c>
       <c r="D16">
-        <v>0.02722975392390985</v>
+        <v>0.02689509289535696</v>
       </c>
       <c r="E16">
-        <v>-0.01481233975484699</v>
+        <v>-0.01311539825584434</v>
       </c>
       <c r="F16">
-        <v>0.005613230339261388</v>
+        <v>0.006704651569654285</v>
       </c>
       <c r="G16">
-        <v>0.02598319292820028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0008955311850716177</v>
+      </c>
+      <c r="H16">
+        <v>0.0132467795308293</v>
+      </c>
+      <c r="I16">
+        <v>0.02190924566924522</v>
+      </c>
+      <c r="J16">
+        <v>-0.01090007711739822</v>
+      </c>
+      <c r="K16">
+        <v>0.01954336181182921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01271560027575559</v>
+        <v>0.0157500743564788</v>
       </c>
       <c r="C20">
-        <v>0.09297726735281395</v>
+        <v>0.08380702984338509</v>
       </c>
       <c r="D20">
-        <v>0.04252190511291905</v>
+        <v>0.02679255386101031</v>
       </c>
       <c r="E20">
-        <v>-0.02745396092319556</v>
+        <v>0.01176426002277386</v>
       </c>
       <c r="F20">
-        <v>0.003405155291962203</v>
+        <v>0.02101452341902701</v>
       </c>
       <c r="G20">
-        <v>0.09028420685213788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.009382211179466454</v>
+      </c>
+      <c r="H20">
+        <v>0.05189038702791628</v>
+      </c>
+      <c r="I20">
+        <v>0.06578067189232786</v>
+      </c>
+      <c r="J20">
+        <v>-0.02216141672300298</v>
+      </c>
+      <c r="K20">
+        <v>0.01304630375557396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.001427153261074543</v>
+        <v>0.01388372628423655</v>
       </c>
       <c r="C21">
-        <v>0.08777336464958753</v>
+        <v>0.06943377796237471</v>
       </c>
       <c r="D21">
-        <v>-0.01541924668390112</v>
+        <v>0.0191043583600627</v>
       </c>
       <c r="E21">
-        <v>0.04648155669142753</v>
+        <v>0.008979914600232272</v>
       </c>
       <c r="F21">
-        <v>0.07103983793313019</v>
+        <v>-0.09489360389741741</v>
       </c>
       <c r="G21">
-        <v>0.02091841525140914</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01963996514250731</v>
+      </c>
+      <c r="H21">
+        <v>0.04503790786882884</v>
+      </c>
+      <c r="I21">
+        <v>0.1025645606733838</v>
+      </c>
+      <c r="J21">
+        <v>-0.0916264238931815</v>
+      </c>
+      <c r="K21">
+        <v>-0.0007535517407396911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.0160383411164164</v>
+        <v>0.007163824991030594</v>
       </c>
       <c r="C22">
-        <v>0.2397406512980857</v>
+        <v>0.1729424134892864</v>
       </c>
       <c r="D22">
-        <v>-0.07813120406088252</v>
+        <v>0.02074854567837605</v>
       </c>
       <c r="E22">
-        <v>0.2896073018627496</v>
+        <v>0.1656351447914795</v>
       </c>
       <c r="F22">
-        <v>-0.3377533101660583</v>
+        <v>0.07678758142214318</v>
       </c>
       <c r="G22">
-        <v>-0.0527016322217266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.4782466941481761</v>
+      </c>
+      <c r="H22">
+        <v>-0.06113396870771459</v>
+      </c>
+      <c r="I22">
+        <v>-0.3089570853817138</v>
+      </c>
+      <c r="J22">
+        <v>0.1380182146564451</v>
+      </c>
+      <c r="K22">
+        <v>0.01408810166865276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01696869198623292</v>
+        <v>0.0123114557080413</v>
       </c>
       <c r="C23">
-        <v>0.2436564473365334</v>
+        <v>0.1762623373311153</v>
       </c>
       <c r="D23">
-        <v>-0.08283191863578013</v>
+        <v>0.02028087450412489</v>
       </c>
       <c r="E23">
-        <v>0.2844749099927066</v>
+        <v>0.1574936798003755</v>
       </c>
       <c r="F23">
-        <v>-0.3328324635138488</v>
+        <v>0.07439493974425479</v>
       </c>
       <c r="G23">
-        <v>-0.053152238163158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.4666811107464474</v>
+      </c>
+      <c r="H23">
+        <v>-0.0561162135669897</v>
+      </c>
+      <c r="I23">
+        <v>-0.2886512499029582</v>
+      </c>
+      <c r="J23">
+        <v>0.1273168332590916</v>
+      </c>
+      <c r="K23">
+        <v>0.01916549300241579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006869952178899215</v>
+        <v>0.01702248650432394</v>
       </c>
       <c r="C24">
-        <v>0.05825468894465233</v>
+        <v>0.0631281751426115</v>
       </c>
       <c r="D24">
-        <v>0.04404394943582562</v>
+        <v>0.04020737487658677</v>
       </c>
       <c r="E24">
-        <v>-0.01119277598292114</v>
+        <v>-0.01018300670619813</v>
       </c>
       <c r="F24">
-        <v>-0.002462472625684181</v>
+        <v>0.008911173221977559</v>
       </c>
       <c r="G24">
-        <v>0.0553148590543828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.000507712145096795</v>
+      </c>
+      <c r="H24">
+        <v>0.02969777933974382</v>
+      </c>
+      <c r="I24">
+        <v>0.03437738223543994</v>
+      </c>
+      <c r="J24">
+        <v>-0.02544626419374197</v>
+      </c>
+      <c r="K24">
+        <v>0.02460913991759802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007233974766557186</v>
+        <v>0.02130764190403802</v>
       </c>
       <c r="C25">
-        <v>0.06545606726759713</v>
+        <v>0.06651023794155138</v>
       </c>
       <c r="D25">
-        <v>0.02243078125544942</v>
+        <v>0.03282730307482988</v>
       </c>
       <c r="E25">
-        <v>-0.01667377110021284</v>
+        <v>-0.013449139794731</v>
       </c>
       <c r="F25">
-        <v>0.003451992706994967</v>
+        <v>0.01069596379534092</v>
       </c>
       <c r="G25">
-        <v>0.05099610039389647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.006049690736111273</v>
+      </c>
+      <c r="H25">
+        <v>0.02162194372913442</v>
+      </c>
+      <c r="I25">
+        <v>0.03282227425384079</v>
+      </c>
+      <c r="J25">
+        <v>-0.02269946738925863</v>
+      </c>
+      <c r="K25">
+        <v>0.01146198780244757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.007742396777668796</v>
+        <v>0.02254415191053196</v>
       </c>
       <c r="C26">
-        <v>0.05011890188986656</v>
+        <v>0.05491645141364924</v>
       </c>
       <c r="D26">
-        <v>0.07776506544746617</v>
+        <v>0.06248582804664098</v>
       </c>
       <c r="E26">
-        <v>0.001681850400937486</v>
+        <v>-0.009826069004716512</v>
       </c>
       <c r="F26">
-        <v>0.02784228058035117</v>
+        <v>0.01382900519144982</v>
       </c>
       <c r="G26">
-        <v>0.06107338926605604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.001169829918655551</v>
+      </c>
+      <c r="H26">
+        <v>0.01667337762235255</v>
+      </c>
+      <c r="I26">
+        <v>0.08858571142791775</v>
+      </c>
+      <c r="J26">
+        <v>-0.08959847596679767</v>
+      </c>
+      <c r="K26">
+        <v>0.06139916500880201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3637553234185717</v>
+        <v>0.30998669883161</v>
       </c>
       <c r="C28">
-        <v>-0.08896092083983949</v>
+        <v>-0.1145524583464689</v>
       </c>
       <c r="D28">
-        <v>-0.02214936797753747</v>
+        <v>-0.03331595990665134</v>
       </c>
       <c r="E28">
-        <v>-0.04814477408975196</v>
+        <v>0.0203458310391259</v>
       </c>
       <c r="F28">
-        <v>0.06002913472631496</v>
+        <v>-0.01254329706318057</v>
       </c>
       <c r="G28">
-        <v>-0.08960675134607081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0468033920217077</v>
+      </c>
+      <c r="H28">
+        <v>-0.09958442628120902</v>
+      </c>
+      <c r="I28">
+        <v>0.06739796897122605</v>
+      </c>
+      <c r="J28">
+        <v>-0.0449307578894996</v>
+      </c>
+      <c r="K28">
+        <v>-0.2114978869964988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01047195800682692</v>
+        <v>0.01689804469565993</v>
       </c>
       <c r="C29">
-        <v>0.08116910378403551</v>
+        <v>0.08282016521728508</v>
       </c>
       <c r="D29">
-        <v>0.04740212495327726</v>
+        <v>0.04921519058285955</v>
       </c>
       <c r="E29">
-        <v>0.01699628189574147</v>
+        <v>-0.0192759402098127</v>
       </c>
       <c r="F29">
-        <v>0.03699279466004029</v>
+        <v>-0.04195106547518063</v>
       </c>
       <c r="G29">
-        <v>0.1088379136642435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.008126281223857553</v>
+      </c>
+      <c r="H29">
+        <v>0.1896032899716203</v>
+      </c>
+      <c r="I29">
+        <v>0.2043172724690817</v>
+      </c>
+      <c r="J29">
+        <v>-0.1190796709712137</v>
+      </c>
+      <c r="K29">
+        <v>-0.0008435638722287953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02757691333697498</v>
+        <v>0.03412221782388742</v>
       </c>
       <c r="C30">
-        <v>0.1707796590262023</v>
+        <v>0.1446758829053379</v>
       </c>
       <c r="D30">
-        <v>0.06997698681371636</v>
+        <v>0.05595233977519081</v>
       </c>
       <c r="E30">
-        <v>0.03451837157305865</v>
+        <v>0.03115519010174195</v>
       </c>
       <c r="F30">
-        <v>-0.05098499538933517</v>
+        <v>0.009836614895940291</v>
       </c>
       <c r="G30">
-        <v>0.03490500559337146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04997532837265935</v>
+      </c>
+      <c r="H30">
+        <v>0.02122329188740223</v>
+      </c>
+      <c r="I30">
+        <v>0.03952961646986493</v>
+      </c>
+      <c r="J30">
+        <v>0.003850007817745772</v>
+      </c>
+      <c r="K30">
+        <v>0.04602590017535429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003881523230297103</v>
+        <v>0.01487286740497165</v>
       </c>
       <c r="C31">
-        <v>0.04735311873459107</v>
+        <v>0.07606959681945882</v>
       </c>
       <c r="D31">
-        <v>0.03216751679707203</v>
+        <v>0.04122372693108251</v>
       </c>
       <c r="E31">
-        <v>-0.01167903269346467</v>
+        <v>0.001899598094889399</v>
       </c>
       <c r="F31">
-        <v>0.00757575771275381</v>
+        <v>0.002278297153919749</v>
       </c>
       <c r="G31">
-        <v>0.007891962040423478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.007407499173549938</v>
+      </c>
+      <c r="H31">
+        <v>-0.01467564414924447</v>
+      </c>
+      <c r="I31">
+        <v>0.04199302850540784</v>
+      </c>
+      <c r="J31">
+        <v>-0.01779804324709557</v>
+      </c>
+      <c r="K31">
+        <v>0.01036953656624089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01802305019967451</v>
+        <v>0.02231730958070472</v>
       </c>
       <c r="C32">
-        <v>0.07412249437008392</v>
+        <v>0.05291852994756437</v>
       </c>
       <c r="D32">
-        <v>0.00394821344621409</v>
+        <v>0.02476722521594104</v>
       </c>
       <c r="E32">
-        <v>0.1539321128195908</v>
+        <v>-0.003663205707094391</v>
       </c>
       <c r="F32">
-        <v>-0.00716983060992411</v>
+        <v>-0.05756329437585782</v>
       </c>
       <c r="G32">
-        <v>0.083060973470594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.1032803268522634</v>
+      </c>
+      <c r="H32">
+        <v>0.1001063187869229</v>
+      </c>
+      <c r="I32">
+        <v>0.09905948575502431</v>
+      </c>
+      <c r="J32">
+        <v>-0.1250578343499244</v>
+      </c>
+      <c r="K32">
+        <v>-0.2578358395513798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01181291247133542</v>
+        <v>0.01719280318117664</v>
       </c>
       <c r="C33">
-        <v>0.09132209614441587</v>
+        <v>0.1019467704116993</v>
       </c>
       <c r="D33">
-        <v>0.06559004666627895</v>
+        <v>0.05201765638243602</v>
       </c>
       <c r="E33">
-        <v>0.01231327391447788</v>
+        <v>0.01135115776749578</v>
       </c>
       <c r="F33">
-        <v>0.01141512946473525</v>
+        <v>0.008254400504419919</v>
       </c>
       <c r="G33">
-        <v>0.04487370880945079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01892752968316631</v>
+      </c>
+      <c r="H33">
+        <v>0.03733875615015601</v>
+      </c>
+      <c r="I33">
+        <v>0.04407614808973844</v>
+      </c>
+      <c r="J33">
+        <v>-0.03762236306607442</v>
+      </c>
+      <c r="K33">
+        <v>-0.01828396976043935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.003531894857305521</v>
+        <v>0.01765070212081394</v>
       </c>
       <c r="C34">
-        <v>0.0513186271014993</v>
+        <v>0.04901653300295154</v>
       </c>
       <c r="D34">
-        <v>0.02232170820744338</v>
+        <v>0.0210771517602587</v>
       </c>
       <c r="E34">
-        <v>-0.002812153739247405</v>
+        <v>-0.01390373606278941</v>
       </c>
       <c r="F34">
-        <v>0.01969048932428331</v>
+        <v>0.001197037298460095</v>
       </c>
       <c r="G34">
-        <v>0.03334045352427892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003080674778800663</v>
+      </c>
+      <c r="H34">
+        <v>0.02542691707548015</v>
+      </c>
+      <c r="I34">
+        <v>0.0188380434287008</v>
+      </c>
+      <c r="J34">
+        <v>0.01753831906587775</v>
+      </c>
+      <c r="K34">
+        <v>0.01392936304269004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003642988890845322</v>
+        <v>0.01034230189085155</v>
       </c>
       <c r="C35">
-        <v>0.0295934264287746</v>
+        <v>0.0456016436007754</v>
       </c>
       <c r="D35">
-        <v>0.008545946504612047</v>
+        <v>0.021616824793927</v>
       </c>
       <c r="E35">
-        <v>0.00658366766478544</v>
+        <v>0.003702629544603269</v>
       </c>
       <c r="F35">
-        <v>0.01062662746431862</v>
+        <v>-0.01106061095728302</v>
       </c>
       <c r="G35">
-        <v>0.03895249009230482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.008545229242360496</v>
+      </c>
+      <c r="H35">
+        <v>0.08643668366353073</v>
+      </c>
+      <c r="I35">
+        <v>0.1250249565641653</v>
+      </c>
+      <c r="J35">
+        <v>-0.04662092261895874</v>
+      </c>
+      <c r="K35">
+        <v>-0.02058752518533764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01007683900024228</v>
+        <v>0.0138559085133061</v>
       </c>
       <c r="C36">
-        <v>0.05413029387122643</v>
+        <v>0.04593411794672162</v>
       </c>
       <c r="D36">
-        <v>0.0586277528130698</v>
+        <v>0.04409358320856494</v>
       </c>
       <c r="E36">
-        <v>-0.002349808536929388</v>
+        <v>0.009284435177636637</v>
       </c>
       <c r="F36">
-        <v>0.01356653409002299</v>
+        <v>0.0036506261713319</v>
       </c>
       <c r="G36">
-        <v>0.04086101448339844</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01635875137368967</v>
+      </c>
+      <c r="H36">
+        <v>0.01332018860857871</v>
+      </c>
+      <c r="I36">
+        <v>0.06692534253945402</v>
+      </c>
+      <c r="J36">
+        <v>-0.06566709292602241</v>
+      </c>
+      <c r="K36">
+        <v>0.01919156741080271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03391254742158149</v>
+        <v>0.009783839489859886</v>
       </c>
       <c r="C38">
-        <v>0.05213964043301741</v>
+        <v>0.05859163284264687</v>
       </c>
       <c r="D38">
-        <v>0.04406389217746919</v>
+        <v>0.03740605868436921</v>
       </c>
       <c r="E38">
-        <v>-0.009496954510909846</v>
+        <v>0.04681981356121497</v>
       </c>
       <c r="F38">
-        <v>0.01157876601784373</v>
+        <v>0.02113037073876801</v>
       </c>
       <c r="G38">
-        <v>0.05572182193986378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.005887889390359387</v>
+      </c>
+      <c r="H38">
+        <v>0.03249287107690014</v>
+      </c>
+      <c r="I38">
+        <v>0.0557374413215358</v>
+      </c>
+      <c r="J38">
+        <v>-0.04490951310465877</v>
+      </c>
+      <c r="K38">
+        <v>-0.06230762323230717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005115956179528838</v>
+        <v>0.02450129475150211</v>
       </c>
       <c r="C39">
-        <v>0.1282643444022029</v>
+        <v>0.1313297783431877</v>
       </c>
       <c r="D39">
-        <v>0.06006688394327385</v>
+        <v>0.05906450656631873</v>
       </c>
       <c r="E39">
-        <v>-0.00645169907249202</v>
+        <v>0.008044703560684138</v>
       </c>
       <c r="F39">
-        <v>0.01390209747107631</v>
+        <v>-0.01348538048023622</v>
       </c>
       <c r="G39">
-        <v>0.07346402426768797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01718196802741022</v>
+      </c>
+      <c r="H39">
+        <v>0.0506992469250389</v>
+      </c>
+      <c r="I39">
+        <v>0.04260803663608206</v>
+      </c>
+      <c r="J39">
+        <v>0.005214448950469703</v>
+      </c>
+      <c r="K39">
+        <v>0.09250419199150559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.00783168123233012</v>
+        <v>0.0146318147875696</v>
       </c>
       <c r="C40">
-        <v>0.03848671037438715</v>
+        <v>0.0583666425208705</v>
       </c>
       <c r="D40">
-        <v>0.03700499860225533</v>
+        <v>0.04509559661444003</v>
       </c>
       <c r="E40">
-        <v>0.1174230834275603</v>
+        <v>0.003916739177562962</v>
       </c>
       <c r="F40">
-        <v>-0.06711005715122552</v>
+        <v>-0.03138958145917752</v>
       </c>
       <c r="G40">
-        <v>0.09665391179365077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02657417106814396</v>
+      </c>
+      <c r="H40">
+        <v>0.1518608160473832</v>
+      </c>
+      <c r="I40">
+        <v>-0.006928896741605765</v>
+      </c>
+      <c r="J40">
+        <v>-0.02136905926579974</v>
+      </c>
+      <c r="K40">
+        <v>0.02866399055633667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01089159356233877</v>
+        <v>0.02200429733676587</v>
       </c>
       <c r="C41">
-        <v>0.02164167831342247</v>
+        <v>0.04751450196444418</v>
       </c>
       <c r="D41">
-        <v>0.003145370557198302</v>
+        <v>0.01501267977203479</v>
       </c>
       <c r="E41">
-        <v>-0.00221927536643171</v>
+        <v>-0.006023379130042672</v>
       </c>
       <c r="F41">
-        <v>0.009913078309542725</v>
+        <v>0.0004450415903365091</v>
       </c>
       <c r="G41">
-        <v>-0.04496667262509105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01389222824331228</v>
+      </c>
+      <c r="H41">
+        <v>-0.003151352708280254</v>
+      </c>
+      <c r="I41">
+        <v>0.01738213559732036</v>
+      </c>
+      <c r="J41">
+        <v>-0.02507080169004853</v>
+      </c>
+      <c r="K41">
+        <v>-0.02807112800701652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.004770939401181583</v>
+        <v>0.01920729635341485</v>
       </c>
       <c r="C43">
-        <v>0.02369086565576276</v>
+        <v>0.04515735559429965</v>
       </c>
       <c r="D43">
-        <v>0.02216531673057108</v>
+        <v>0.02929558906887322</v>
       </c>
       <c r="E43">
-        <v>-0.003340718089516177</v>
+        <v>0.003542712345902122</v>
       </c>
       <c r="F43">
-        <v>-0.0009956756880542927</v>
+        <v>0.0105805932358023</v>
       </c>
       <c r="G43">
-        <v>-0.005613198938114812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008646356290513215</v>
+      </c>
+      <c r="H43">
+        <v>0.01076906196728383</v>
+      </c>
+      <c r="I43">
+        <v>0.02763363740683219</v>
+      </c>
+      <c r="J43">
+        <v>-0.02672093087537805</v>
+      </c>
+      <c r="K43">
+        <v>0.001496133256068662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02185186373547959</v>
+        <v>0.01699125258311849</v>
       </c>
       <c r="C44">
-        <v>0.09906913852956868</v>
+        <v>0.09834043587983275</v>
       </c>
       <c r="D44">
-        <v>0.03290729919780151</v>
+        <v>0.05738307332451908</v>
       </c>
       <c r="E44">
-        <v>0.02731785736889753</v>
+        <v>0.04732025148317006</v>
       </c>
       <c r="F44">
-        <v>-0.02413662595720204</v>
+        <v>0.020272631634411</v>
       </c>
       <c r="G44">
-        <v>0.07009473783667718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05205049091130241</v>
+      </c>
+      <c r="H44">
+        <v>0.0573090329082698</v>
+      </c>
+      <c r="I44">
+        <v>0.01844841919058346</v>
+      </c>
+      <c r="J44">
+        <v>-0.03593524946179415</v>
+      </c>
+      <c r="K44">
+        <v>0.05240675602560912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.003249113563873546</v>
+        <v>0.004780579970449136</v>
       </c>
       <c r="C46">
-        <v>0.06198963938539744</v>
+        <v>0.0651026135977366</v>
       </c>
       <c r="D46">
-        <v>0.04596217617692485</v>
+        <v>0.02857318346737735</v>
       </c>
       <c r="E46">
-        <v>0.01816564476464134</v>
+        <v>0.002511534767070286</v>
       </c>
       <c r="F46">
-        <v>0.01333355052186714</v>
+        <v>-0.008166819586046023</v>
       </c>
       <c r="G46">
-        <v>0.04392590679690344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.003741133403925644</v>
+      </c>
+      <c r="H46">
+        <v>0.05280584692504071</v>
+      </c>
+      <c r="I46">
+        <v>0.06382278622793523</v>
+      </c>
+      <c r="J46">
+        <v>-0.06835075623302724</v>
+      </c>
+      <c r="K46">
+        <v>0.01282523677632201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005481232297681813</v>
+        <v>0.0222448092410207</v>
       </c>
       <c r="C47">
-        <v>0.05560034585502746</v>
+        <v>0.07297097641443852</v>
       </c>
       <c r="D47">
-        <v>0.05682096944424313</v>
+        <v>0.04365148379622788</v>
       </c>
       <c r="E47">
-        <v>-0.01705568732361208</v>
+        <v>-0.01425440697103305</v>
       </c>
       <c r="F47">
-        <v>0.05070749688529481</v>
+        <v>0.002356790664643742</v>
       </c>
       <c r="G47">
-        <v>0.01977914841844974</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008985515163479271</v>
+      </c>
+      <c r="H47">
+        <v>0.01875574964524381</v>
+      </c>
+      <c r="I47">
+        <v>0.05668464856793571</v>
+      </c>
+      <c r="J47">
+        <v>-0.04724217157278859</v>
+      </c>
+      <c r="K47">
+        <v>-0.01927518143133417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006323436426807766</v>
+        <v>0.01647961680503475</v>
       </c>
       <c r="C48">
-        <v>0.0564237838566163</v>
+        <v>0.04573550956341074</v>
       </c>
       <c r="D48">
-        <v>0.06617546127928021</v>
+        <v>0.05323959505599814</v>
       </c>
       <c r="E48">
-        <v>-0.008879092741648872</v>
+        <v>-0.008365996108335728</v>
       </c>
       <c r="F48">
-        <v>-0.002279844772662361</v>
+        <v>0.01901943716979138</v>
       </c>
       <c r="G48">
-        <v>0.04731092660376605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02512946679496146</v>
+      </c>
+      <c r="H48">
+        <v>0.01723484064623714</v>
+      </c>
+      <c r="I48">
+        <v>0.09374225380852703</v>
+      </c>
+      <c r="J48">
+        <v>-0.08683828676977248</v>
+      </c>
+      <c r="K48">
+        <v>0.0406299408006255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02103577562012442</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.04983840783411114</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.009318858834809445</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02815206200983277</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.007133380661704259</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.07221991135656276</v>
+      </c>
+      <c r="H49">
+        <v>0.05162717342942431</v>
+      </c>
+      <c r="I49">
+        <v>-0.01620784038864412</v>
+      </c>
+      <c r="J49">
+        <v>0.1116905563088382</v>
+      </c>
+      <c r="K49">
+        <v>0.05143745479115921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0008514663764334461</v>
+        <v>0.01559261068631319</v>
       </c>
       <c r="C50">
-        <v>0.06027478316317472</v>
+        <v>0.07558868530854444</v>
       </c>
       <c r="D50">
-        <v>0.02829991899736656</v>
+        <v>0.03250079087215622</v>
       </c>
       <c r="E50">
-        <v>0.0001766253067213529</v>
+        <v>-0.0010440968888251</v>
       </c>
       <c r="F50">
-        <v>-0.007930171734273364</v>
+        <v>0.01367744540046433</v>
       </c>
       <c r="G50">
-        <v>0.02263340714542461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01638858131105054</v>
+      </c>
+      <c r="H50">
+        <v>0.008198996540155278</v>
+      </c>
+      <c r="I50">
+        <v>0.065842681733039</v>
+      </c>
+      <c r="J50">
+        <v>-0.0197796212093329</v>
+      </c>
+      <c r="K50">
+        <v>-0.05195319271658205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.005848280974486783</v>
+        <v>-0.004194265407484841</v>
       </c>
       <c r="C51">
-        <v>0.0738532935101192</v>
+        <v>0.03583385442999317</v>
       </c>
       <c r="D51">
-        <v>0.04343476499146582</v>
+        <v>0.02649099837230545</v>
       </c>
       <c r="E51">
-        <v>0.03254562699311072</v>
+        <v>0.02954984162225457</v>
       </c>
       <c r="F51">
-        <v>0.000857624546322007</v>
+        <v>-0.01579320349021263</v>
       </c>
       <c r="G51">
-        <v>0.0005401994719893277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02085285560664411</v>
+      </c>
+      <c r="H51">
+        <v>0.0383977101068189</v>
+      </c>
+      <c r="I51">
+        <v>0.06289518579510577</v>
+      </c>
+      <c r="J51">
+        <v>-0.08803738407654242</v>
+      </c>
+      <c r="K51">
+        <v>0.03576048989464811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0310684879778706</v>
+        <v>0.06104030430337901</v>
       </c>
       <c r="C53">
-        <v>0.11471951644226</v>
+        <v>0.1312237730773661</v>
       </c>
       <c r="D53">
-        <v>0.06626790833638613</v>
+        <v>0.05724246814650243</v>
       </c>
       <c r="E53">
-        <v>-0.1299213120293064</v>
+        <v>-0.04274280086260869</v>
       </c>
       <c r="F53">
-        <v>0.04570599103212945</v>
+        <v>-0.008870991832826447</v>
       </c>
       <c r="G53">
-        <v>-0.09038000177450488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05271552844622953</v>
+      </c>
+      <c r="H53">
+        <v>-0.09300572818806908</v>
+      </c>
+      <c r="I53">
+        <v>-0.0005846966140051398</v>
+      </c>
+      <c r="J53">
+        <v>0.0003516421002504302</v>
+      </c>
+      <c r="K53">
+        <v>-0.01771511997248967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.003375767090449385</v>
+        <v>0.01631724171294478</v>
       </c>
       <c r="C54">
-        <v>0.0699876644562983</v>
+        <v>0.07125804662063327</v>
       </c>
       <c r="D54">
-        <v>0.01285052472321372</v>
+        <v>0.01212498218573586</v>
       </c>
       <c r="E54">
-        <v>-0.01903033039905202</v>
+        <v>-0.01360449979084303</v>
       </c>
       <c r="F54">
-        <v>0.002160178032115839</v>
+        <v>0.004328697347235282</v>
       </c>
       <c r="G54">
-        <v>0.02592086882590717</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0006223784895537934</v>
+      </c>
+      <c r="H54">
+        <v>0.02659206503440909</v>
+      </c>
+      <c r="I54">
+        <v>0.04457740901568732</v>
+      </c>
+      <c r="J54">
+        <v>-0.03854355768879007</v>
+      </c>
+      <c r="K54">
+        <v>0.02478409805265102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01136992008760387</v>
+        <v>0.03093985056323386</v>
       </c>
       <c r="C55">
-        <v>0.07372622677332608</v>
+        <v>0.08266872846294362</v>
       </c>
       <c r="D55">
-        <v>0.06053454166906531</v>
+        <v>0.05317603421543338</v>
       </c>
       <c r="E55">
-        <v>-0.06133122070810765</v>
+        <v>-0.03620195022955958</v>
       </c>
       <c r="F55">
-        <v>0.03324718360165388</v>
+        <v>0.002950506603984784</v>
       </c>
       <c r="G55">
-        <v>-0.02471203173572425</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03288886140672384</v>
+      </c>
+      <c r="H55">
+        <v>-0.03891708877624092</v>
+      </c>
+      <c r="I55">
+        <v>0.001250470043605029</v>
+      </c>
+      <c r="J55">
+        <v>-0.0104205167862948</v>
+      </c>
+      <c r="K55">
+        <v>0.01186287874771076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.012022401362105</v>
+        <v>0.04920966665959436</v>
       </c>
       <c r="C56">
-        <v>0.1445178201616422</v>
+        <v>0.1533462402283456</v>
       </c>
       <c r="D56">
-        <v>0.06589648961856076</v>
+        <v>0.08036325490688608</v>
       </c>
       <c r="E56">
-        <v>-0.1008552927178457</v>
+        <v>-0.08880591580806076</v>
       </c>
       <c r="F56">
-        <v>0.07034210171077397</v>
+        <v>-0.03348199125272213</v>
       </c>
       <c r="G56">
-        <v>-0.1318279032605824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07341741475196609</v>
+      </c>
+      <c r="H56">
+        <v>-0.1639196915947281</v>
+      </c>
+      <c r="I56">
+        <v>0.01696862288219249</v>
+      </c>
+      <c r="J56">
+        <v>0.0241914104488085</v>
+      </c>
+      <c r="K56">
+        <v>-0.002006138028499366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03054533878855102</v>
+        <v>0.01876431120358975</v>
       </c>
       <c r="C58">
-        <v>0.2885263037732491</v>
+        <v>0.1747298662105856</v>
       </c>
       <c r="D58">
-        <v>-0.02071128624913815</v>
+        <v>0.04329765220792276</v>
       </c>
       <c r="E58">
-        <v>0.1440019748232964</v>
+        <v>0.2196972819828838</v>
       </c>
       <c r="F58">
-        <v>-0.248281281349056</v>
+        <v>0.006690028699086998</v>
       </c>
       <c r="G58">
-        <v>-0.02644674688281756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2943100150857811</v>
+      </c>
+      <c r="H58">
+        <v>-0.06065961400260348</v>
+      </c>
+      <c r="I58">
+        <v>0.009938788183214912</v>
+      </c>
+      <c r="J58">
+        <v>-0.1513300529125507</v>
+      </c>
+      <c r="K58">
+        <v>-0.06195951091998046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2900220261767957</v>
+        <v>0.2887411406801111</v>
       </c>
       <c r="C59">
-        <v>-0.00213150536971215</v>
+        <v>-0.0526460156132322</v>
       </c>
       <c r="D59">
-        <v>-0.006381147467338454</v>
+        <v>-0.005898004451326591</v>
       </c>
       <c r="E59">
-        <v>0.05534797802887824</v>
+        <v>0.01685381453808262</v>
       </c>
       <c r="F59">
-        <v>0.04671500889185715</v>
+        <v>-0.02104920363773404</v>
       </c>
       <c r="G59">
-        <v>-0.0117306093004733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0482067181629741</v>
+      </c>
+      <c r="H59">
+        <v>-0.01245835565759074</v>
+      </c>
+      <c r="I59">
+        <v>-0.02602039671201145</v>
+      </c>
+      <c r="J59">
+        <v>0.004065491785030335</v>
+      </c>
+      <c r="K59">
+        <v>-0.03994434288572315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1078258707651478</v>
+        <v>0.152606572236574</v>
       </c>
       <c r="C60">
-        <v>0.1482978745065466</v>
+        <v>0.1600371267028849</v>
       </c>
       <c r="D60">
-        <v>0.08937483764701641</v>
+        <v>0.04044994683325974</v>
       </c>
       <c r="E60">
-        <v>-0.09419453824976075</v>
+        <v>-0.1624061520720159</v>
       </c>
       <c r="F60">
-        <v>0.1924285132248906</v>
+        <v>-0.001111463861854067</v>
       </c>
       <c r="G60">
-        <v>0.2419907979213097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.09368004149757506</v>
+      </c>
+      <c r="H60">
+        <v>0.189421556811694</v>
+      </c>
+      <c r="I60">
+        <v>-0.2598800542804695</v>
+      </c>
+      <c r="J60">
+        <v>0.08585149213792073</v>
+      </c>
+      <c r="K60">
+        <v>0.03220106417806223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.004736348676293864</v>
+        <v>0.02504501737243538</v>
       </c>
       <c r="C61">
-        <v>0.08191337557686744</v>
+        <v>0.09841125742891531</v>
       </c>
       <c r="D61">
-        <v>0.06734969226772199</v>
+        <v>0.05417047274280649</v>
       </c>
       <c r="E61">
-        <v>-0.01924905891672529</v>
+        <v>-0.01612091929278927</v>
       </c>
       <c r="F61">
-        <v>0.03184275145913582</v>
+        <v>-0.001559852792839237</v>
       </c>
       <c r="G61">
-        <v>0.07820192230716091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02210782265851512</v>
+      </c>
+      <c r="H61">
+        <v>0.04000118112381535</v>
+      </c>
+      <c r="I61">
+        <v>0.05692520002316221</v>
+      </c>
+      <c r="J61">
+        <v>0.002308585781550255</v>
+      </c>
+      <c r="K61">
+        <v>0.03363325378585085</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002908540921724038</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01485035765125775</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003141580552635862</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01636459476455593</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02128123267075988</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02629480621319875</v>
+      </c>
+      <c r="H62">
+        <v>0.02167114353654968</v>
+      </c>
+      <c r="I62">
+        <v>0.015987610583078</v>
+      </c>
+      <c r="J62">
+        <v>0.004124254274633762</v>
+      </c>
+      <c r="K62">
+        <v>-0.009063537975847415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.001570689890407674</v>
+        <v>0.02693829366068804</v>
       </c>
       <c r="C63">
-        <v>0.05835786727033589</v>
+        <v>0.06366301512602612</v>
       </c>
       <c r="D63">
-        <v>0.03782446087704935</v>
+        <v>0.05884042625529849</v>
       </c>
       <c r="E63">
-        <v>-0.01872097344590733</v>
+        <v>-0.01448597050027178</v>
       </c>
       <c r="F63">
-        <v>0.003068952310869464</v>
+        <v>0.0009342414322371158</v>
       </c>
       <c r="G63">
-        <v>0.001888892738184227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.002979538139026821</v>
+      </c>
+      <c r="H63">
+        <v>0.01397444874253407</v>
+      </c>
+      <c r="I63">
+        <v>0.06793818695178686</v>
+      </c>
+      <c r="J63">
+        <v>-0.02125149208011514</v>
+      </c>
+      <c r="K63">
+        <v>0.01459014583566725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.001783296328164775</v>
+        <v>0.01784610430405431</v>
       </c>
       <c r="C64">
-        <v>0.08469377969286178</v>
+        <v>0.09156424017589143</v>
       </c>
       <c r="D64">
-        <v>0.06827639454871032</v>
+        <v>0.03428628532078933</v>
       </c>
       <c r="E64">
-        <v>-0.003252178534148614</v>
+        <v>-0.01459887632684705</v>
       </c>
       <c r="F64">
-        <v>-0.008773719256443453</v>
+        <v>0.0387549156975017</v>
       </c>
       <c r="G64">
-        <v>0.05347322455001675</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03906580710265728</v>
+      </c>
+      <c r="H64">
+        <v>0.07074981483773884</v>
+      </c>
+      <c r="I64">
+        <v>0.03733221579573181</v>
+      </c>
+      <c r="J64">
+        <v>-0.01492546006827746</v>
+      </c>
+      <c r="K64">
+        <v>0.0777459609813735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.006493067945398875</v>
+        <v>0.03290432132551863</v>
       </c>
       <c r="C65">
-        <v>0.08932312899971714</v>
+        <v>0.09301748780524582</v>
       </c>
       <c r="D65">
-        <v>0.03715709755436872</v>
+        <v>0.02258079980493419</v>
       </c>
       <c r="E65">
-        <v>0.01954092759796029</v>
+        <v>0.0009921465027034593</v>
       </c>
       <c r="F65">
-        <v>0.01016794490364599</v>
+        <v>0.01625047821434715</v>
       </c>
       <c r="G65">
-        <v>0.07500735974102626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002238257556830324</v>
+      </c>
+      <c r="H65">
+        <v>0.08735561833339231</v>
+      </c>
+      <c r="I65">
+        <v>-0.02037359236658064</v>
+      </c>
+      <c r="J65">
+        <v>0.01104568951445371</v>
+      </c>
+      <c r="K65">
+        <v>0.06332054852674293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003160226171539707</v>
+        <v>0.02215285017903022</v>
       </c>
       <c r="C66">
-        <v>0.1707605376592142</v>
+        <v>0.1703935210716273</v>
       </c>
       <c r="D66">
-        <v>0.05064560305492204</v>
+        <v>0.05075097089619943</v>
       </c>
       <c r="E66">
-        <v>0.0351567085522328</v>
+        <v>0.002856695163276881</v>
       </c>
       <c r="F66">
-        <v>0.02545357847011546</v>
+        <v>-0.01678308232949765</v>
       </c>
       <c r="G66">
-        <v>0.09745677362606699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.005603070155416154</v>
+      </c>
+      <c r="H66">
+        <v>0.04820235161901901</v>
+      </c>
+      <c r="I66">
+        <v>0.06282304020283991</v>
+      </c>
+      <c r="J66">
+        <v>0.01224354088060093</v>
+      </c>
+      <c r="K66">
+        <v>0.06522286256394941</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03302219286978515</v>
+        <v>0.01924741248796452</v>
       </c>
       <c r="C67">
-        <v>0.02874655239420491</v>
+        <v>0.05116184381282073</v>
       </c>
       <c r="D67">
-        <v>0.06032907105669088</v>
+        <v>0.03865537206516076</v>
       </c>
       <c r="E67">
-        <v>-0.03952370693324232</v>
+        <v>0.02805621366499728</v>
       </c>
       <c r="F67">
-        <v>0.02590013862610394</v>
+        <v>0.01795969753124928</v>
       </c>
       <c r="G67">
-        <v>0.06326727449470121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02645620297761239</v>
+      </c>
+      <c r="H67">
+        <v>0.04681392734153699</v>
+      </c>
+      <c r="I67">
+        <v>0.02009804876925535</v>
+      </c>
+      <c r="J67">
+        <v>-0.05327803271511784</v>
+      </c>
+      <c r="K67">
+        <v>-0.04381481914118962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2956680293331139</v>
+        <v>0.292873620687274</v>
       </c>
       <c r="C68">
-        <v>-0.02336403072358305</v>
+        <v>-0.07755439858112576</v>
       </c>
       <c r="D68">
-        <v>0.003042866625201833</v>
+        <v>-0.02606197497468426</v>
       </c>
       <c r="E68">
-        <v>0.023605077090914</v>
+        <v>-0.008389705716041264</v>
       </c>
       <c r="F68">
-        <v>0.001328000862009913</v>
+        <v>0.002567003380810606</v>
       </c>
       <c r="G68">
-        <v>0.010605173222222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.04921868783812067</v>
+      </c>
+      <c r="H68">
+        <v>-0.01615033961167311</v>
+      </c>
+      <c r="I68">
+        <v>0.03311807278761582</v>
+      </c>
+      <c r="J68">
+        <v>-0.02022456707900551</v>
+      </c>
+      <c r="K68">
+        <v>-0.04546087200282472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.0102117254412924</v>
+        <v>0.01038410856883684</v>
       </c>
       <c r="C69">
-        <v>0.05403640475672999</v>
+        <v>0.04621391854798314</v>
       </c>
       <c r="D69">
-        <v>0.05691575719361085</v>
+        <v>0.02509916182480925</v>
       </c>
       <c r="E69">
-        <v>-0.02845059590974799</v>
+        <v>0.002472850279805729</v>
       </c>
       <c r="F69">
-        <v>0.003949327286453605</v>
+        <v>-0.009277223599225632</v>
       </c>
       <c r="G69">
-        <v>0.0261590332577999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01172012876096071</v>
+      </c>
+      <c r="H69">
+        <v>0.02144133829536433</v>
+      </c>
+      <c r="I69">
+        <v>0.01092147517673749</v>
+      </c>
+      <c r="J69">
+        <v>-0.03645909713024294</v>
+      </c>
+      <c r="K69">
+        <v>-0.02408525893658816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2867494384816454</v>
+        <v>0.2742983978935177</v>
       </c>
       <c r="C71">
-        <v>-0.04209267986314463</v>
+        <v>-0.080913244798891</v>
       </c>
       <c r="D71">
-        <v>-0.01358650629129995</v>
+        <v>-0.02275716219358402</v>
       </c>
       <c r="E71">
-        <v>0.02640019090039874</v>
+        <v>0.0302705158409675</v>
       </c>
       <c r="F71">
-        <v>-0.02010277673912091</v>
+        <v>0.01082231303259611</v>
       </c>
       <c r="G71">
-        <v>-0.001035095041619405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0624568135904259</v>
+      </c>
+      <c r="H71">
+        <v>-0.01152496503857978</v>
+      </c>
+      <c r="I71">
+        <v>0.03977854084545038</v>
+      </c>
+      <c r="J71">
+        <v>-0.04456185568998297</v>
+      </c>
+      <c r="K71">
+        <v>-0.1107866528060093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.007520998179915891</v>
+        <v>0.05295504663150786</v>
       </c>
       <c r="C72">
-        <v>0.1480773511408592</v>
+        <v>0.1383635306174127</v>
       </c>
       <c r="D72">
-        <v>0.07406789485981792</v>
+        <v>0.05027436704125684</v>
       </c>
       <c r="E72">
-        <v>-0.009831496497356228</v>
+        <v>-0.06278515858006008</v>
       </c>
       <c r="F72">
-        <v>-0.04342818576737244</v>
+        <v>0.004411961889963961</v>
       </c>
       <c r="G72">
-        <v>0.09409162400043342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.009697914800748924</v>
+      </c>
+      <c r="H72">
+        <v>-0.0003023443018850454</v>
+      </c>
+      <c r="I72">
+        <v>0.05482406107656587</v>
+      </c>
+      <c r="J72">
+        <v>-0.02148310083363369</v>
+      </c>
+      <c r="K72">
+        <v>0.1099064117289372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07102160787219337</v>
+        <v>0.1570754258194597</v>
       </c>
       <c r="C73">
-        <v>0.1049371002825314</v>
+        <v>0.1962668108042044</v>
       </c>
       <c r="D73">
-        <v>0.1302705233288609</v>
+        <v>0.0844522473798897</v>
       </c>
       <c r="E73">
-        <v>-0.1645272246206167</v>
+        <v>-0.1307700590917689</v>
       </c>
       <c r="F73">
-        <v>0.2286096830233684</v>
+        <v>0.0126934015817224</v>
       </c>
       <c r="G73">
-        <v>0.3241728273558517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2229922815487999</v>
+      </c>
+      <c r="H73">
+        <v>0.2942302446292863</v>
+      </c>
+      <c r="I73">
+        <v>-0.3623476382606696</v>
+      </c>
+      <c r="J73">
+        <v>0.08443421165093051</v>
+      </c>
+      <c r="K73">
+        <v>-0.1225303026775812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01363886765911616</v>
+        <v>0.03897592465217564</v>
       </c>
       <c r="C74">
-        <v>0.08168027387891273</v>
+        <v>0.09731915529623723</v>
       </c>
       <c r="D74">
-        <v>0.06936650234460209</v>
+        <v>0.04520388518592885</v>
       </c>
       <c r="E74">
-        <v>-0.06631769218409597</v>
+        <v>-0.03641994912084179</v>
       </c>
       <c r="F74">
-        <v>0.04526936329695952</v>
+        <v>0.0210185571965787</v>
       </c>
       <c r="G74">
-        <v>-0.04650375960968144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01509971963203329</v>
+      </c>
+      <c r="H74">
+        <v>-0.05018398782537758</v>
+      </c>
+      <c r="I74">
+        <v>0.01262750237702144</v>
+      </c>
+      <c r="J74">
+        <v>-0.03027672385715317</v>
+      </c>
+      <c r="K74">
+        <v>0.0151537135842915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03824653603461844</v>
+        <v>0.06388467376514284</v>
       </c>
       <c r="C75">
-        <v>0.1394649029905133</v>
+        <v>0.1636275525138091</v>
       </c>
       <c r="D75">
-        <v>0.07204516499165442</v>
+        <v>0.08253831256621853</v>
       </c>
       <c r="E75">
-        <v>-0.1534368322486712</v>
+        <v>-0.04938561235426961</v>
       </c>
       <c r="F75">
-        <v>0.03536727643734213</v>
+        <v>0.04013410168770817</v>
       </c>
       <c r="G75">
-        <v>-0.18369199760813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.08852979526003898</v>
+      </c>
+      <c r="H75">
+        <v>-0.2135304357712004</v>
+      </c>
+      <c r="I75">
+        <v>0.05594946554108787</v>
+      </c>
+      <c r="J75">
+        <v>0.01968074790312144</v>
+      </c>
+      <c r="K75">
+        <v>-0.1276841436096637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01442470908213923</v>
+        <v>0.04586718186690531</v>
       </c>
       <c r="C76">
-        <v>0.104917306799787</v>
+        <v>0.1249554094641241</v>
       </c>
       <c r="D76">
-        <v>0.06133593271588913</v>
+        <v>0.07408604413216649</v>
       </c>
       <c r="E76">
-        <v>-0.08821147654710895</v>
+        <v>-0.03702234194857913</v>
       </c>
       <c r="F76">
-        <v>0.05639923985504709</v>
+        <v>-0.006561791635330883</v>
       </c>
       <c r="G76">
-        <v>-0.05496902276473119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07494645099230572</v>
+      </c>
+      <c r="H76">
+        <v>-0.07785398580962194</v>
+      </c>
+      <c r="I76">
+        <v>0.02000326261470701</v>
+      </c>
+      <c r="J76">
+        <v>0.03390485714230543</v>
+      </c>
+      <c r="K76">
+        <v>0.02622040949038372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.0922925753414776</v>
+        <v>0.0555950642209358</v>
       </c>
       <c r="C77">
-        <v>0.3692006569810865</v>
+        <v>0.4021275170849233</v>
       </c>
       <c r="D77">
-        <v>-0.8374035042790229</v>
+        <v>-0.8983529303199428</v>
       </c>
       <c r="E77">
-        <v>-0.2759290272975039</v>
+        <v>-0.008933551955029645</v>
       </c>
       <c r="F77">
-        <v>0.1321668423886943</v>
+        <v>0.02866843488896429</v>
       </c>
       <c r="G77">
-        <v>0.04381246276629316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.06948918222427343</v>
+      </c>
+      <c r="H77">
+        <v>-0.01928609555376948</v>
+      </c>
+      <c r="I77">
+        <v>0.08560620686123598</v>
+      </c>
+      <c r="J77">
+        <v>0.0209045047104772</v>
+      </c>
+      <c r="K77">
+        <v>-0.0235494173823119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03232922196309475</v>
+        <v>0.03911171211878469</v>
       </c>
       <c r="C78">
-        <v>0.1233557196172387</v>
+        <v>0.112935585662497</v>
       </c>
       <c r="D78">
-        <v>0.1755601489804249</v>
+        <v>0.09397904284010199</v>
       </c>
       <c r="E78">
-        <v>0.08487546154127379</v>
+        <v>0.01838368651200803</v>
       </c>
       <c r="F78">
-        <v>0.1370600642750967</v>
+        <v>-0.05103181828289254</v>
       </c>
       <c r="G78">
-        <v>-0.1137302648271347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.009604623023540012</v>
+      </c>
+      <c r="H78">
+        <v>-0.09878362094453777</v>
+      </c>
+      <c r="I78">
+        <v>0.04889097571138348</v>
+      </c>
+      <c r="J78">
+        <v>-0.07962230308551742</v>
+      </c>
+      <c r="K78">
+        <v>0.09370119493907729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02309266115293519</v>
+        <v>0.0583696532310651</v>
       </c>
       <c r="C79">
-        <v>0.1597334557048392</v>
+        <v>0.1411294221624793</v>
       </c>
       <c r="D79">
-        <v>0.1058596552152757</v>
+        <v>0.0681573146711138</v>
       </c>
       <c r="E79">
-        <v>-0.1173581241034227</v>
+        <v>-0.04787141360309308</v>
       </c>
       <c r="F79">
-        <v>0.07239170470118367</v>
+        <v>-0.01246981632380121</v>
       </c>
       <c r="G79">
-        <v>-0.2859449330031781</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.04467077244640227</v>
+      </c>
+      <c r="H79">
+        <v>-0.2552701429798202</v>
+      </c>
+      <c r="I79">
+        <v>0.064073662096718</v>
+      </c>
+      <c r="J79">
+        <v>-0.05236910746421149</v>
+      </c>
+      <c r="K79">
+        <v>-0.05378631740738152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007984606388364781</v>
+        <v>0.02086195096656912</v>
       </c>
       <c r="C80">
-        <v>0.05180523908594084</v>
+        <v>0.04352030732699349</v>
       </c>
       <c r="D80">
-        <v>0.04670546554765185</v>
+        <v>0.03754023023446432</v>
       </c>
       <c r="E80">
-        <v>0.0396402933105485</v>
+        <v>0.0193033016701203</v>
       </c>
       <c r="F80">
-        <v>0.008532772604765518</v>
+        <v>-0.05862844850484961</v>
       </c>
       <c r="G80">
-        <v>-0.002262170615898567</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01864400554062412</v>
+      </c>
+      <c r="H80">
+        <v>0.06759876826585752</v>
+      </c>
+      <c r="I80">
+        <v>-0.05442567234889974</v>
+      </c>
+      <c r="J80">
+        <v>0.009017523334912625</v>
+      </c>
+      <c r="K80">
+        <v>-0.03729537435091367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.002954019065238428</v>
+        <v>0.0171535777647248</v>
       </c>
       <c r="C81">
-        <v>0.07831756640069959</v>
+        <v>0.09509377399986918</v>
       </c>
       <c r="D81">
-        <v>0.06965777785279507</v>
+        <v>0.05665820176030505</v>
       </c>
       <c r="E81">
-        <v>-0.07607541339050768</v>
+        <v>-0.0298272058143528</v>
       </c>
       <c r="F81">
-        <v>0.05215547046563856</v>
+        <v>-0.0130308276511106</v>
       </c>
       <c r="G81">
-        <v>-0.08798993072243989</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03202308654936483</v>
+      </c>
+      <c r="H81">
+        <v>-0.101939738020133</v>
+      </c>
+      <c r="I81">
+        <v>0.06227938834599111</v>
+      </c>
+      <c r="J81">
+        <v>-0.05223439943047677</v>
+      </c>
+      <c r="K81">
+        <v>-0.04050212895562896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01645552191709208</v>
+        <v>0.04728492633452326</v>
       </c>
       <c r="C82">
-        <v>0.07652591472557306</v>
+        <v>0.1060727087385509</v>
       </c>
       <c r="D82">
-        <v>0.06679225179937545</v>
+        <v>0.06414923930400608</v>
       </c>
       <c r="E82">
-        <v>-0.0919794061305957</v>
+        <v>-0.03281740650865075</v>
       </c>
       <c r="F82">
-        <v>0.05071524982201085</v>
+        <v>-0.01793375176778669</v>
       </c>
       <c r="G82">
-        <v>-0.04324448254298838</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06799947905948611</v>
+      </c>
+      <c r="H82">
+        <v>-0.0745280064689435</v>
+      </c>
+      <c r="I82">
+        <v>0.03542486497542949</v>
+      </c>
+      <c r="J82">
+        <v>0.01988102829427441</v>
+      </c>
+      <c r="K82">
+        <v>-0.007584952060719709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.00238206756275138</v>
+        <v>-7.033078714840981e-05</v>
       </c>
       <c r="C83">
-        <v>0.01977539042314851</v>
+        <v>-0.02476390028188265</v>
       </c>
       <c r="D83">
-        <v>-0.1365243091041497</v>
+        <v>-0.05781128551314142</v>
       </c>
       <c r="E83">
-        <v>0.6232175083044158</v>
+        <v>-0.2201480014398413</v>
       </c>
       <c r="F83">
-        <v>0.6527409664241355</v>
+        <v>-0.9190643629651487</v>
       </c>
       <c r="G83">
-        <v>-0.1706142484293748</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1762056653543402</v>
+      </c>
+      <c r="H83">
+        <v>-0.01888726752743718</v>
+      </c>
+      <c r="I83">
+        <v>-0.02931751223129498</v>
+      </c>
+      <c r="J83">
+        <v>0.1078427773471453</v>
+      </c>
+      <c r="K83">
+        <v>0.05387172865875167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.01127745813982453</v>
+        <v>0.01381931607058153</v>
       </c>
       <c r="C84">
-        <v>0.09156726497574516</v>
+        <v>0.06416826082592456</v>
       </c>
       <c r="D84">
-        <v>0.03518001381489533</v>
+        <v>0.08838429045724402</v>
       </c>
       <c r="E84">
-        <v>0.05698474815787067</v>
+        <v>0.3778690185294032</v>
       </c>
       <c r="F84">
-        <v>-0.1456056291245747</v>
+        <v>-0.05544077865648835</v>
       </c>
       <c r="G84">
-        <v>-0.004542715236908419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.03724462750497223</v>
+      </c>
+      <c r="H84">
+        <v>0.1518014910635887</v>
+      </c>
+      <c r="I84">
+        <v>0.3774989509620035</v>
+      </c>
+      <c r="J84">
+        <v>0.7535112144369115</v>
+      </c>
+      <c r="K84">
+        <v>-0.1528310239895259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0009144195664497159</v>
+        <v>0.03148381257250624</v>
       </c>
       <c r="C85">
-        <v>0.109150113347478</v>
+        <v>0.1144062521117047</v>
       </c>
       <c r="D85">
-        <v>0.07438930719743214</v>
+        <v>0.0813554134198933</v>
       </c>
       <c r="E85">
-        <v>-0.09929666354637168</v>
+        <v>-0.06610407662815862</v>
       </c>
       <c r="F85">
-        <v>0.06369090214380912</v>
+        <v>-0.009669181946383658</v>
       </c>
       <c r="G85">
-        <v>-0.1939782350870365</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1055740520099351</v>
+      </c>
+      <c r="H85">
+        <v>-0.2243825789663582</v>
+      </c>
+      <c r="I85">
+        <v>0.04870041835688751</v>
+      </c>
+      <c r="J85">
+        <v>0.02844374946409496</v>
+      </c>
+      <c r="K85">
+        <v>-0.06833054022663296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02066243489023655</v>
+        <v>0.01503329780505852</v>
       </c>
       <c r="C86">
-        <v>0.077225138967723</v>
+        <v>0.07763008005935436</v>
       </c>
       <c r="D86">
-        <v>-0.008054642373525813</v>
+        <v>0.03034194833596805</v>
       </c>
       <c r="E86">
-        <v>0.0112391698896868</v>
+        <v>0.06986219970130751</v>
       </c>
       <c r="F86">
-        <v>-0.01327202720582139</v>
+        <v>-0.02092533249578799</v>
       </c>
       <c r="G86">
-        <v>0.09446263055354885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05681847236178498</v>
+      </c>
+      <c r="H86">
+        <v>-0.04805249874184845</v>
+      </c>
+      <c r="I86">
+        <v>-0.05135293261640857</v>
+      </c>
+      <c r="J86">
+        <v>-0.1100641815836675</v>
+      </c>
+      <c r="K86">
+        <v>-0.1171945626663431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02581131875986488</v>
+        <v>0.02685462867201171</v>
       </c>
       <c r="C87">
-        <v>0.1605965980650377</v>
+        <v>0.117067287507378</v>
       </c>
       <c r="D87">
-        <v>0.03635893710514659</v>
+        <v>0.02067381548799378</v>
       </c>
       <c r="E87">
-        <v>0.08527531185812648</v>
+        <v>-0.01280108901765347</v>
       </c>
       <c r="F87">
-        <v>-0.05765968650689428</v>
+        <v>0.003403955634917021</v>
       </c>
       <c r="G87">
-        <v>-0.01429976172589772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.06049090033629494</v>
+      </c>
+      <c r="H87">
+        <v>-0.005026580990467692</v>
+      </c>
+      <c r="I87">
+        <v>0.04817302982656671</v>
+      </c>
+      <c r="J87">
+        <v>0.005235654345017887</v>
+      </c>
+      <c r="K87">
+        <v>0.09148354213605259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.007017617602251338</v>
+        <v>0.03925250802667785</v>
       </c>
       <c r="C88">
-        <v>0.03170680943452905</v>
+        <v>0.05907060638269653</v>
       </c>
       <c r="D88">
-        <v>0.03650691417348751</v>
+        <v>0.03882397775321971</v>
       </c>
       <c r="E88">
-        <v>-0.04654042090298646</v>
+        <v>-0.02428453759031935</v>
       </c>
       <c r="F88">
-        <v>0.008840946770337707</v>
+        <v>0.01538481387990588</v>
       </c>
       <c r="G88">
-        <v>0.01151337329098679</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01143872482274451</v>
+      </c>
+      <c r="H88">
+        <v>0.0122695780133499</v>
+      </c>
+      <c r="I88">
+        <v>-0.007767746466795939</v>
+      </c>
+      <c r="J88">
+        <v>-0.01837624149641643</v>
+      </c>
+      <c r="K88">
+        <v>0.01634404909845071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4018411436455041</v>
+        <v>0.3893927935955739</v>
       </c>
       <c r="C89">
-        <v>-0.074220202558116</v>
+        <v>-0.1206024638923704</v>
       </c>
       <c r="D89">
-        <v>0.06803575996319669</v>
+        <v>-0.03844608777436296</v>
       </c>
       <c r="E89">
-        <v>0.05396568933675423</v>
+        <v>0.02140683299122877</v>
       </c>
       <c r="F89">
-        <v>-0.09813741618360311</v>
+        <v>0.04294277564704084</v>
       </c>
       <c r="G89">
-        <v>-0.03435070762239629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04698854111016443</v>
+      </c>
+      <c r="H89">
+        <v>0.0455127360401805</v>
+      </c>
+      <c r="I89">
+        <v>0.0429967085419866</v>
+      </c>
+      <c r="J89">
+        <v>0.05979070447528809</v>
+      </c>
+      <c r="K89">
+        <v>0.7471216598356578</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3068662731651973</v>
+        <v>0.3161241296166072</v>
       </c>
       <c r="C90">
-        <v>-0.02483199707722557</v>
+        <v>-0.07890511198407565</v>
       </c>
       <c r="D90">
-        <v>0.00313692290572918</v>
+        <v>-0.01985143526341367</v>
       </c>
       <c r="E90">
-        <v>0.07311532316898532</v>
+        <v>0.01302471756663841</v>
       </c>
       <c r="F90">
-        <v>0.03976949762382265</v>
+        <v>-0.008561771367866212</v>
       </c>
       <c r="G90">
-        <v>0.02036515696671757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02850821072157976</v>
+      </c>
+      <c r="H90">
+        <v>0.0039557602017919</v>
+      </c>
+      <c r="I90">
+        <v>0.01306161051222335</v>
+      </c>
+      <c r="J90">
+        <v>0.01076793707876378</v>
+      </c>
+      <c r="K90">
+        <v>-0.0987570386517011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02299064197130693</v>
+        <v>0.05641069294582733</v>
       </c>
       <c r="C91">
-        <v>0.07642606013167123</v>
+        <v>0.07823328068702946</v>
       </c>
       <c r="D91">
-        <v>0.05739823039902364</v>
+        <v>0.05278847307455445</v>
       </c>
       <c r="E91">
-        <v>-0.0518318297614048</v>
+        <v>-0.05583834579848798</v>
       </c>
       <c r="F91">
-        <v>0.0569560779538166</v>
+        <v>-0.033675052010547</v>
       </c>
       <c r="G91">
-        <v>-0.08120811366158073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03109755062555503</v>
+      </c>
+      <c r="H91">
+        <v>-0.09064397336800598</v>
+      </c>
+      <c r="I91">
+        <v>0.004780839807183835</v>
+      </c>
+      <c r="J91">
+        <v>0.01894979837532585</v>
+      </c>
+      <c r="K91">
+        <v>-0.009367937241287779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3805684487838721</v>
+        <v>0.3496167365633201</v>
       </c>
       <c r="C92">
-        <v>-0.07030295887630113</v>
+        <v>-0.1261197051953588</v>
       </c>
       <c r="D92">
-        <v>-0.02181712114738345</v>
+        <v>-0.0572700658371832</v>
       </c>
       <c r="E92">
-        <v>-0.02120790610937748</v>
+        <v>0.02413382429744506</v>
       </c>
       <c r="F92">
-        <v>-0.1211657605722345</v>
+        <v>0.04477044716929052</v>
       </c>
       <c r="G92">
-        <v>-0.005253297670091886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04959563142960401</v>
+      </c>
+      <c r="H92">
+        <v>0.0001135880665162922</v>
+      </c>
+      <c r="I92">
+        <v>0.04742755901100472</v>
+      </c>
+      <c r="J92">
+        <v>-0.04954386113542261</v>
+      </c>
+      <c r="K92">
+        <v>-0.1382359193176476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3069086023894581</v>
+        <v>0.3068586826290324</v>
       </c>
       <c r="C93">
-        <v>-0.07309634708153406</v>
+        <v>-0.1225008794774186</v>
       </c>
       <c r="D93">
-        <v>0.01317223171371577</v>
+        <v>-0.007686540141313042</v>
       </c>
       <c r="E93">
-        <v>0.0660100359380701</v>
+        <v>0.04356374037794158</v>
       </c>
       <c r="F93">
-        <v>-0.04341155161597875</v>
+        <v>-0.003388892084380975</v>
       </c>
       <c r="G93">
-        <v>-0.0001261252375729446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03553174185172443</v>
+      </c>
+      <c r="H93">
+        <v>-0.03304645873521437</v>
+      </c>
+      <c r="I93">
+        <v>0.02201020770284309</v>
+      </c>
+      <c r="J93">
+        <v>-0.03173181523951071</v>
+      </c>
+      <c r="K93">
+        <v>-0.1160079564266455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03227852008444384</v>
+        <v>0.08356977169844934</v>
       </c>
       <c r="C94">
-        <v>0.181853400739778</v>
+        <v>0.163062968930656</v>
       </c>
       <c r="D94">
-        <v>0.1289279262730139</v>
+        <v>0.1120661196899491</v>
       </c>
       <c r="E94">
-        <v>-0.1749961048570744</v>
+        <v>-0.07625488353604888</v>
       </c>
       <c r="F94">
-        <v>0.02692046122979662</v>
+        <v>-0.02502817708755893</v>
       </c>
       <c r="G94">
-        <v>-0.604253443908972</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1227272965963933</v>
+      </c>
+      <c r="H94">
+        <v>-0.570713449555041</v>
+      </c>
+      <c r="I94">
+        <v>-0.0312421902864753</v>
+      </c>
+      <c r="J94">
+        <v>0.1481762936097367</v>
+      </c>
+      <c r="K94">
+        <v>0.04976876053098972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02277124475709519</v>
+        <v>0.04421459927850464</v>
       </c>
       <c r="C95">
-        <v>0.1193197502754253</v>
+        <v>0.1305508577659324</v>
       </c>
       <c r="D95">
-        <v>0.05183112303329753</v>
+        <v>0.06485402149250521</v>
       </c>
       <c r="E95">
-        <v>-0.04949378212845187</v>
+        <v>-0.01559535196909717</v>
       </c>
       <c r="F95">
-        <v>0.09515500739584117</v>
+        <v>0.02099683613104374</v>
       </c>
       <c r="G95">
-        <v>0.04144171220950697</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.08284431544716149</v>
+      </c>
+      <c r="H95">
+        <v>0.05723220721612877</v>
+      </c>
+      <c r="I95">
+        <v>0.07806796332920263</v>
+      </c>
+      <c r="J95">
+        <v>0.07654673503532042</v>
+      </c>
+      <c r="K95">
+        <v>0.1501589360016305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0006746214670252583</v>
+        <v>0.02060372147712549</v>
       </c>
       <c r="C97">
-        <v>0.001085846656191778</v>
+        <v>0.02643898873039367</v>
       </c>
       <c r="D97">
-        <v>0.001230125055206167</v>
+        <v>-0.008334239504598173</v>
       </c>
       <c r="E97">
-        <v>-0.004213163346046924</v>
+        <v>0.05011149912559301</v>
       </c>
       <c r="F97">
-        <v>-0.0001447623218783256</v>
+        <v>0.006047667243581737</v>
       </c>
       <c r="G97">
-        <v>0.006231909446534749</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03536885345755238</v>
+      </c>
+      <c r="H97">
+        <v>0.02692592092359159</v>
+      </c>
+      <c r="I97">
+        <v>-0.02844816044687294</v>
+      </c>
+      <c r="J97">
+        <v>-0.04520808639470002</v>
+      </c>
+      <c r="K97">
+        <v>0.0459047135013318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08999957198552112</v>
+        <v>0.139191818584168</v>
       </c>
       <c r="C98">
-        <v>0.1464044339382699</v>
+        <v>0.1612312583799969</v>
       </c>
       <c r="D98">
-        <v>0.1490281049168115</v>
+        <v>0.089691859929588</v>
       </c>
       <c r="E98">
-        <v>-0.1184804527144606</v>
+        <v>-0.1549942354810546</v>
       </c>
       <c r="F98">
-        <v>0.1483680157057143</v>
+        <v>-0.006364050270916134</v>
       </c>
       <c r="G98">
-        <v>0.1886276204038397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1974768889545351</v>
+      </c>
+      <c r="H98">
+        <v>0.218009991627709</v>
+      </c>
+      <c r="I98">
+        <v>-0.3436033442201032</v>
+      </c>
+      <c r="J98">
+        <v>0.1209270084007604</v>
+      </c>
+      <c r="K98">
+        <v>-0.1296638606230492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03031323196482262</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.06057132590949211</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.004782078590314211</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.7555364859623293</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.2743360877752554</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.4015081639512453</v>
+      </c>
+      <c r="H99">
+        <v>-0.05013231047582557</v>
+      </c>
+      <c r="I99">
+        <v>-0.2408823915875469</v>
+      </c>
+      <c r="J99">
+        <v>-0.2526996982596245</v>
+      </c>
+      <c r="K99">
+        <v>0.08612869668925333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01057510019375533</v>
+        <v>0.0170014797920654</v>
       </c>
       <c r="C101">
-        <v>0.07929047056581005</v>
+        <v>0.08157046390090908</v>
       </c>
       <c r="D101">
-        <v>0.04763007393496075</v>
+        <v>0.04787049989265945</v>
       </c>
       <c r="E101">
-        <v>0.01804676494588517</v>
+        <v>-0.0174618037072988</v>
       </c>
       <c r="F101">
-        <v>0.03655563501367158</v>
+        <v>-0.04252729280708177</v>
       </c>
       <c r="G101">
-        <v>0.1077604889558882</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.007469777144726736</v>
+      </c>
+      <c r="H101">
+        <v>0.1901595643830933</v>
+      </c>
+      <c r="I101">
+        <v>0.2026864793180581</v>
+      </c>
+      <c r="J101">
+        <v>-0.1171600292559968</v>
+      </c>
+      <c r="K101">
+        <v>-0.002224906979722092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004505751140234108</v>
+        <v>0.002019560701756135</v>
       </c>
       <c r="C102">
-        <v>0.01503013028160707</v>
+        <v>0.006028958026948705</v>
       </c>
       <c r="D102">
-        <v>-0.003341271871144189</v>
+        <v>-0.002887135150223333</v>
       </c>
       <c r="E102">
-        <v>-0.01670042379180582</v>
+        <v>-0.004051716052740152</v>
       </c>
       <c r="F102">
-        <v>0.0187827498658486</v>
+        <v>-0.0008654962951489579</v>
       </c>
       <c r="G102">
-        <v>-0.006915077851642126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.002660935169956676</v>
+      </c>
+      <c r="H102">
+        <v>-0.001468647103872148</v>
+      </c>
+      <c r="I102">
+        <v>0.005847102448413081</v>
+      </c>
+      <c r="J102">
+        <v>-0.005092511160263932</v>
+      </c>
+      <c r="K102">
+        <v>0.01402667793200756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
